--- a/docs/cơ sở dữ liệu.xlsx
+++ b/docs/cơ sở dữ liệu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\25\laravel\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\25\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F73D5-91BB-4595-AA53-FCC55E90D20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B90522-DB06-450F-BC27-6B4EDB5868E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8640" yWindow="1740" windowWidth="18345" windowHeight="12555" xr2:uid="{D1F19E86-CB7D-46BC-BF7C-28CB26985B36}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="B3:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,17 +806,29 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
@@ -826,35 +838,23 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
